--- a/db.xlsx
+++ b/db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
   <si>
     <t>ГОД</t>
   </si>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,8 @@
         <v>8</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -470,7 +471,8 @@
         <v>8</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -496,7 +498,8 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -548,7 +551,8 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -574,7 +578,8 @@
         <v>11</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -600,7 +605,8 @@
         <v>11</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -705,7 +711,331 @@
       </c>
       <c r="H12">
         <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2020</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44321</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H24" ca="1" si="0">RANDBETWEEN(1,10)</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2020</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44321</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2020</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44321</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2020</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44321</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44321</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2020</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44321</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2020</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2020</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44197</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
